--- a/FINAL_PROCESSED_NCHS.xlsx
+++ b/FINAL_PROCESSED_NCHS.xlsx
@@ -687,7 +687,7 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>252</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>257</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -875,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="D9">
-        <v>242</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K9">
         <v>8</v>
@@ -922,7 +922,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>528</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K10">
         <v>6</v>
@@ -1016,7 +1016,7 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>137</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>121</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -1345,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>172</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.89408</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -1392,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -1580,7 +1580,7 @@
         <v>16</v>
       </c>
       <c r="D24">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -1768,7 +1768,7 @@
         <v>16</v>
       </c>
       <c r="D28">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -1956,7 +1956,7 @@
         <v>16</v>
       </c>
       <c r="D32">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K35">
         <v>5</v>
@@ -2144,7 +2144,7 @@
         <v>16</v>
       </c>
       <c r="D36">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="D41">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>16</v>
       </c>
       <c r="D46">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>16</v>
       </c>
       <c r="D50">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="D55">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3225,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="D59">
-        <v>289</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>16</v>
       </c>
       <c r="D60">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K63">
         <v>5</v>
@@ -3460,7 +3460,7 @@
         <v>15</v>
       </c>
       <c r="D64">
-        <v>424</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -3507,7 +3507,7 @@
         <v>16</v>
       </c>
       <c r="D65">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>18</v>
       </c>
       <c r="D68">
-        <v>129</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>15</v>
       </c>
       <c r="D69">
-        <v>304</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3742,7 +3742,7 @@
         <v>16</v>
       </c>
       <c r="D70">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -3930,7 +3930,7 @@
         <v>16</v>
       </c>
       <c r="D74">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K78">
         <v>6</v>
@@ -4165,7 +4165,7 @@
         <v>16</v>
       </c>
       <c r="D79">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>16</v>
       </c>
       <c r="D84">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="J84">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -4635,7 +4635,7 @@
         <v>16</v>
       </c>
       <c r="D89">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>16</v>
       </c>
       <c r="D98">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>16</v>
       </c>
       <c r="D107">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>16</v>
       </c>
       <c r="D112">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -5904,7 +5904,7 @@
         <v>15</v>
       </c>
       <c r="D116">
-        <v>919</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E116">
         <v>4</v>
@@ -5951,7 +5951,7 @@
         <v>16</v>
       </c>
       <c r="D117">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>15</v>
       </c>
       <c r="D121">
-        <v>315</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6186,7 +6186,7 @@
         <v>16</v>
       </c>
       <c r="D122">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>16</v>
       </c>
       <c r="D127">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -6609,7 +6609,7 @@
         <v>16</v>
       </c>
       <c r="D131">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="J134">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K134">
         <v>5</v>
@@ -6844,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="D136">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>16</v>
       </c>
       <c r="D141">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -7267,7 +7267,7 @@
         <v>16</v>
       </c>
       <c r="D145">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>2.54</v>
       </c>
       <c r="J148">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K148">
         <v>5</v>
@@ -7502,7 +7502,7 @@
         <v>16</v>
       </c>
       <c r="D150">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -7737,7 +7737,7 @@
         <v>16</v>
       </c>
       <c r="D155">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -8160,7 +8160,7 @@
         <v>16</v>
       </c>
       <c r="D164">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -8319,7 +8319,7 @@
         <v>2.54</v>
       </c>
       <c r="J167">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K167">
         <v>2</v>
@@ -9823,7 +9823,7 @@
         <v>30.48</v>
       </c>
       <c r="J199">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K199">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>7.619999999999999</v>
       </c>
       <c r="J202">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K202">
         <v>6</v>
@@ -10011,7 +10011,7 @@
         <v>30.48</v>
       </c>
       <c r="J203">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K203">
         <v>0</v>
@@ -11421,7 +11421,7 @@
         <v>30.48</v>
       </c>
       <c r="J233">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K233">
         <v>5</v>
@@ -12549,7 +12549,7 @@
         <v>0</v>
       </c>
       <c r="J257">
-        <v>0.89408</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K257">
         <v>5</v>
@@ -12578,7 +12578,7 @@
         <v>16</v>
       </c>
       <c r="D258">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E258">
         <v>0</v>
@@ -12643,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="J259">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="J262">
-        <v>0.89408</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K262">
         <v>5</v>
@@ -12813,7 +12813,7 @@
         <v>16</v>
       </c>
       <c r="D263">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="J264">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="J267">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K267">
         <v>6</v>
@@ -13048,7 +13048,7 @@
         <v>16</v>
       </c>
       <c r="D268">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E268">
         <v>0</v>
@@ -13066,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="J268">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K268">
         <v>4</v>
@@ -13160,7 +13160,7 @@
         <v>7.619999999999999</v>
       </c>
       <c r="J270">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -13254,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="J272">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K272">
         <v>5</v>
@@ -13283,7 +13283,7 @@
         <v>16</v>
       </c>
       <c r="D273">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E273">
         <v>0</v>
@@ -13518,7 +13518,7 @@
         <v>16</v>
       </c>
       <c r="D278">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         <v>16</v>
       </c>
       <c r="D283">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E283">
         <v>0</v>
@@ -13988,7 +13988,7 @@
         <v>16</v>
       </c>
       <c r="D288">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E288">
         <v>0</v>
@@ -14176,7 +14176,7 @@
         <v>16</v>
       </c>
       <c r="D292">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E292">
         <v>0</v>
@@ -14411,7 +14411,7 @@
         <v>16</v>
       </c>
       <c r="D297">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -14646,7 +14646,7 @@
         <v>16</v>
       </c>
       <c r="D302">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E302">
         <v>0</v>
@@ -14852,7 +14852,7 @@
         <v>7.619999999999999</v>
       </c>
       <c r="J306">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K306">
         <v>8</v>
@@ -14881,7 +14881,7 @@
         <v>16</v>
       </c>
       <c r="D307">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E307">
         <v>0</v>
@@ -15134,7 +15134,7 @@
         <v>17.78</v>
       </c>
       <c r="J312">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K312">
         <v>4</v>
@@ -15398,7 +15398,7 @@
         <v>16</v>
       </c>
       <c r="D318">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E318">
         <v>0</v>
@@ -15962,7 +15962,7 @@
         <v>16</v>
       </c>
       <c r="D330">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E330">
         <v>0</v>
@@ -16150,7 +16150,7 @@
         <v>16</v>
       </c>
       <c r="D334">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E334">
         <v>0</v>
@@ -16385,7 +16385,7 @@
         <v>16</v>
       </c>
       <c r="D339">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -16620,7 +16620,7 @@
         <v>16</v>
       </c>
       <c r="D344">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E344">
         <v>0</v>
@@ -16855,7 +16855,7 @@
         <v>16</v>
       </c>
       <c r="D349">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E349">
         <v>0</v>
@@ -17090,7 +17090,7 @@
         <v>16</v>
       </c>
       <c r="D354">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E354">
         <v>0</v>
@@ -17155,7 +17155,7 @@
         <v>17.78</v>
       </c>
       <c r="J355">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K355">
         <v>0</v>
@@ -17325,7 +17325,7 @@
         <v>16</v>
       </c>
       <c r="D359">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E359">
         <v>0</v>
@@ -17531,7 +17531,7 @@
         <v>17.78</v>
       </c>
       <c r="J363">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K363">
         <v>6</v>
@@ -17560,7 +17560,7 @@
         <v>16</v>
       </c>
       <c r="D364">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E364">
         <v>0</v>
@@ -17578,7 +17578,7 @@
         <v>17.78</v>
       </c>
       <c r="J364">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K364">
         <v>8</v>
@@ -17795,7 +17795,7 @@
         <v>16</v>
       </c>
       <c r="D369">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E369">
         <v>0</v>
@@ -18030,7 +18030,7 @@
         <v>16</v>
       </c>
       <c r="D374">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E374">
         <v>0</v>
@@ -18265,7 +18265,7 @@
         <v>16</v>
       </c>
       <c r="D379">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E379">
         <v>0</v>
@@ -18500,7 +18500,7 @@
         <v>16</v>
       </c>
       <c r="D384">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E384">
         <v>0</v>
@@ -18659,7 +18659,7 @@
         <v>33.02</v>
       </c>
       <c r="J387">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K387">
         <v>6</v>
@@ -18735,7 +18735,7 @@
         <v>16</v>
       </c>
       <c r="D389">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E389">
         <v>0</v>
@@ -18800,7 +18800,7 @@
         <v>40.64</v>
       </c>
       <c r="J390">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K390">
         <v>4</v>
@@ -18923,7 +18923,7 @@
         <v>16</v>
       </c>
       <c r="D393">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E393">
         <v>0</v>
@@ -19111,7 +19111,7 @@
         <v>16</v>
       </c>
       <c r="D397">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E397">
         <v>0</v>
@@ -19299,7 +19299,7 @@
         <v>16</v>
       </c>
       <c r="D401">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E401">
         <v>0</v>
@@ -19505,7 +19505,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J405">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K405">
         <v>3</v>
@@ -19581,7 +19581,7 @@
         <v>16</v>
       </c>
       <c r="D407">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E407">
         <v>0</v>
@@ -19769,7 +19769,7 @@
         <v>16</v>
       </c>
       <c r="D411">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E411">
         <v>0</v>
@@ -19957,7 +19957,7 @@
         <v>16</v>
       </c>
       <c r="D415">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E415">
         <v>0</v>
@@ -20145,7 +20145,7 @@
         <v>16</v>
       </c>
       <c r="D419">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E419">
         <v>0</v>
@@ -20333,7 +20333,7 @@
         <v>16</v>
       </c>
       <c r="D423">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E423">
         <v>0</v>
@@ -20521,7 +20521,7 @@
         <v>16</v>
       </c>
       <c r="D427">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -20709,7 +20709,7 @@
         <v>16</v>
       </c>
       <c r="D431">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -20821,7 +20821,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J433">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K433">
         <v>0</v>
@@ -20897,7 +20897,7 @@
         <v>16</v>
       </c>
       <c r="D435">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -21009,7 +21009,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J437">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K437">
         <v>3</v>
@@ -21056,7 +21056,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J438">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K438">
         <v>2</v>
@@ -21085,7 +21085,7 @@
         <v>16</v>
       </c>
       <c r="D439">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E439">
         <v>0</v>
@@ -21197,7 +21197,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J441">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K441">
         <v>3</v>
@@ -21273,7 +21273,7 @@
         <v>16</v>
       </c>
       <c r="D443">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -21461,7 +21461,7 @@
         <v>16</v>
       </c>
       <c r="D447">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E447">
         <v>0</v>
@@ -21602,7 +21602,7 @@
         <v>16</v>
       </c>
       <c r="D450">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E450">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>16</v>
       </c>
       <c r="D454">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -21978,7 +21978,7 @@
         <v>16</v>
       </c>
       <c r="D458">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E458">
         <v>0</v>
@@ -22166,7 +22166,7 @@
         <v>16</v>
       </c>
       <c r="D462">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -23641,7 +23641,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J493">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K493">
         <v>4</v>
@@ -24628,7 +24628,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J514">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K514">
         <v>2</v>
@@ -24957,7 +24957,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J521">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K521">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J547">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K547">
         <v>0</v>
@@ -26320,7 +26320,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J550">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K550">
         <v>5</v>
@@ -26414,7 +26414,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J552">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K552">
         <v>2</v>
@@ -26461,7 +26461,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J553">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K553">
         <v>4</v>
@@ -26508,7 +26508,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J554">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K554">
         <v>8</v>
@@ -26602,7 +26602,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J556">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K556">
         <v>5</v>
@@ -26649,7 +26649,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J557">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K557">
         <v>8</v>
@@ -26837,7 +26837,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J561">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K561">
         <v>2</v>
@@ -26884,7 +26884,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J562">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K562">
         <v>5</v>
@@ -27166,7 +27166,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J568">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K568">
         <v>5</v>
@@ -27448,7 +27448,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J574">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K574">
         <v>5</v>
@@ -28106,7 +28106,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J588">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K588">
         <v>1</v>
@@ -28153,7 +28153,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J589">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K589">
         <v>4</v>
@@ -28247,7 +28247,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J591">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K591">
         <v>3</v>
@@ -28294,7 +28294,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J592">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K592">
         <v>5</v>
@@ -28576,7 +28576,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J598">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K598">
         <v>5</v>
@@ -28717,7 +28717,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J601">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K601">
         <v>5</v>
@@ -29375,7 +29375,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J615">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K615">
         <v>4</v>
@@ -29798,7 +29798,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J624">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K624">
         <v>4</v>
@@ -29939,7 +29939,7 @@
         <v>3.999573512906843</v>
       </c>
       <c r="J627">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K627">
         <v>5</v>
@@ -30908,7 +30908,7 @@
         <v>16</v>
       </c>
       <c r="D648">
-        <v>-250</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E648">
         <v>0</v>
@@ -31425,7 +31425,7 @@
         <v>14</v>
       </c>
       <c r="D659">
-        <v>144</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E659">
         <v>0</v>
@@ -31584,7 +31584,7 @@
         <v>0</v>
       </c>
       <c r="J662">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K662">
         <v>5</v>
@@ -31660,7 +31660,7 @@
         <v>14</v>
       </c>
       <c r="D664">
-        <v>121</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E664">
         <v>0</v>
@@ -31725,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="J665">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K665">
         <v>0</v>
@@ -32007,7 +32007,7 @@
         <v>0</v>
       </c>
       <c r="J671">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K671">
         <v>0</v>
@@ -32054,7 +32054,7 @@
         <v>0</v>
       </c>
       <c r="J672">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K672">
         <v>2</v>
@@ -32101,7 +32101,7 @@
         <v>0</v>
       </c>
       <c r="J673">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K673">
         <v>1</v>
@@ -32994,7 +32994,7 @@
         <v>0</v>
       </c>
       <c r="J692">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K692">
         <v>5</v>
@@ -34010,7 +34010,7 @@
         <v>16</v>
       </c>
       <c r="D714">
-        <v>121</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E714">
         <v>0</v>
@@ -34151,7 +34151,7 @@
         <v>14</v>
       </c>
       <c r="D717">
-        <v>472</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E717">
         <v>2</v>
@@ -34263,7 +34263,7 @@
         <v>0</v>
       </c>
       <c r="J719">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K719">
         <v>1</v>
@@ -34498,7 +34498,7 @@
         <v>0</v>
       </c>
       <c r="J724">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K724">
         <v>8</v>
@@ -34733,7 +34733,7 @@
         <v>0</v>
       </c>
       <c r="J729">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K729">
         <v>3</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="J735">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K735">
         <v>4</v>
@@ -36660,7 +36660,7 @@
         <v>0</v>
       </c>
       <c r="J770">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K770">
         <v>5</v>
@@ -36736,7 +36736,7 @@
         <v>14</v>
       </c>
       <c r="D772">
-        <v>175</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E772">
         <v>0</v>
@@ -36783,7 +36783,7 @@
         <v>16</v>
       </c>
       <c r="D773">
-        <v>196</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E773">
         <v>1</v>
@@ -36877,7 +36877,7 @@
         <v>14</v>
       </c>
       <c r="D775">
-        <v>468</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E775">
         <v>2</v>
@@ -36942,7 +36942,7 @@
         <v>0</v>
       </c>
       <c r="J776">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K776">
         <v>2</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J777">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K777">
         <v>1</v>
@@ -37112,7 +37112,7 @@
         <v>14</v>
       </c>
       <c r="D780">
-        <v>417</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E780">
         <v>2</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J782">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K782">
         <v>5</v>
@@ -37271,7 +37271,7 @@
         <v>0</v>
       </c>
       <c r="J783">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K783">
         <v>3</v>
@@ -37365,7 +37365,7 @@
         <v>0</v>
       </c>
       <c r="J785">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K785">
         <v>1</v>
@@ -37694,7 +37694,7 @@
         <v>0</v>
       </c>
       <c r="J792">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K792">
         <v>5</v>
@@ -37976,7 +37976,7 @@
         <v>0</v>
       </c>
       <c r="J798">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K798">
         <v>2</v>
@@ -38540,7 +38540,7 @@
         <v>0</v>
       </c>
       <c r="J810">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K810">
         <v>5</v>
@@ -39368,7 +39368,7 @@
         <v>16</v>
       </c>
       <c r="D828">
-        <v>217</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E828">
         <v>1</v>
@@ -39509,7 +39509,7 @@
         <v>14</v>
       </c>
       <c r="D831">
-        <v>488</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E831">
         <v>2</v>
@@ -39668,7 +39668,7 @@
         <v>0</v>
       </c>
       <c r="J834">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K834">
         <v>5</v>
@@ -39809,7 +39809,7 @@
         <v>0</v>
       </c>
       <c r="J837">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K837">
         <v>1</v>
@@ -40044,7 +40044,7 @@
         <v>0</v>
       </c>
       <c r="J842">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K842">
         <v>8</v>
@@ -40091,7 +40091,7 @@
         <v>0</v>
       </c>
       <c r="J843">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K843">
         <v>1</v>
@@ -40373,7 +40373,7 @@
         <v>0</v>
       </c>
       <c r="J849">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K849">
         <v>5</v>
@@ -40514,7 +40514,7 @@
         <v>0</v>
       </c>
       <c r="J852">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K852">
         <v>8</v>
@@ -40608,7 +40608,7 @@
         <v>0</v>
       </c>
       <c r="J854">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K854">
         <v>0</v>
@@ -40890,7 +40890,7 @@
         <v>0</v>
       </c>
       <c r="J860">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K860">
         <v>3</v>
@@ -40984,7 +40984,7 @@
         <v>0</v>
       </c>
       <c r="J862">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K862">
         <v>3</v>
@@ -42047,7 +42047,7 @@
         <v>14</v>
       </c>
       <c r="D885">
-        <v>176</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E885">
         <v>0</v>
@@ -42094,7 +42094,7 @@
         <v>16</v>
       </c>
       <c r="D886">
-        <v>135</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E886">
         <v>0</v>
@@ -42300,7 +42300,7 @@
         <v>0</v>
       </c>
       <c r="J890">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K890">
         <v>0</v>
@@ -42376,7 +42376,7 @@
         <v>14</v>
       </c>
       <c r="D892">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E892">
         <v>1</v>
@@ -42488,7 +42488,7 @@
         <v>0</v>
       </c>
       <c r="J894">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K894">
         <v>5</v>
@@ -42535,7 +42535,7 @@
         <v>0</v>
       </c>
       <c r="J895">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K895">
         <v>2</v>
@@ -42564,7 +42564,7 @@
         <v>14</v>
       </c>
       <c r="D896">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E896">
         <v>1</v>
@@ -42629,7 +42629,7 @@
         <v>0</v>
       </c>
       <c r="J897">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K897">
         <v>4</v>
@@ -42658,7 +42658,7 @@
         <v>14</v>
       </c>
       <c r="D898">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E898">
         <v>1</v>
@@ -42799,7 +42799,7 @@
         <v>14</v>
       </c>
       <c r="D901">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E901">
         <v>1</v>
@@ -42893,7 +42893,7 @@
         <v>14</v>
       </c>
       <c r="D903">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E903">
         <v>1</v>
@@ -42987,7 +42987,7 @@
         <v>14</v>
       </c>
       <c r="D905">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E905">
         <v>1</v>
@@ -43081,7 +43081,7 @@
         <v>14</v>
       </c>
       <c r="D907">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E907">
         <v>1</v>
@@ -43175,7 +43175,7 @@
         <v>14</v>
       </c>
       <c r="D909">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E909">
         <v>1</v>
@@ -43269,7 +43269,7 @@
         <v>14</v>
       </c>
       <c r="D911">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E911">
         <v>1</v>
@@ -43334,7 +43334,7 @@
         <v>0</v>
       </c>
       <c r="J912">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K912">
         <v>5</v>
@@ -43363,7 +43363,7 @@
         <v>14</v>
       </c>
       <c r="D913">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E913">
         <v>1</v>
@@ -43457,7 +43457,7 @@
         <v>14</v>
       </c>
       <c r="D915">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E915">
         <v>1</v>
@@ -43522,7 +43522,7 @@
         <v>0</v>
       </c>
       <c r="J916">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -43551,7 +43551,7 @@
         <v>14</v>
       </c>
       <c r="D917">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E917">
         <v>1</v>
@@ -43616,7 +43616,7 @@
         <v>0</v>
       </c>
       <c r="J918">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K918">
         <v>4</v>
@@ -43645,7 +43645,7 @@
         <v>14</v>
       </c>
       <c r="D919">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E919">
         <v>1</v>
@@ -43710,7 +43710,7 @@
         <v>0</v>
       </c>
       <c r="J920">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K920">
         <v>1</v>
@@ -43739,7 +43739,7 @@
         <v>14</v>
       </c>
       <c r="D921">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E921">
         <v>1</v>
@@ -43833,7 +43833,7 @@
         <v>14</v>
       </c>
       <c r="D923">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E923">
         <v>1</v>
@@ -43927,7 +43927,7 @@
         <v>14</v>
       </c>
       <c r="D925">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E925">
         <v>1</v>
@@ -44021,7 +44021,7 @@
         <v>14</v>
       </c>
       <c r="D927">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E927">
         <v>1</v>
@@ -44115,7 +44115,7 @@
         <v>14</v>
       </c>
       <c r="D929">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E929">
         <v>1</v>
@@ -44209,7 +44209,7 @@
         <v>14</v>
       </c>
       <c r="D931">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E931">
         <v>1</v>
@@ -44274,7 +44274,7 @@
         <v>0</v>
       </c>
       <c r="J932">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K932">
         <v>4</v>
@@ -44303,7 +44303,7 @@
         <v>14</v>
       </c>
       <c r="D933">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E933">
         <v>1</v>
@@ -44368,7 +44368,7 @@
         <v>0</v>
       </c>
       <c r="J934">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K934">
         <v>5</v>
@@ -44397,7 +44397,7 @@
         <v>14</v>
       </c>
       <c r="D935">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E935">
         <v>1</v>
@@ -44462,7 +44462,7 @@
         <v>0</v>
       </c>
       <c r="J936">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K936">
         <v>5</v>
@@ -44491,7 +44491,7 @@
         <v>14</v>
       </c>
       <c r="D937">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E937">
         <v>1</v>
@@ -44556,7 +44556,7 @@
         <v>0</v>
       </c>
       <c r="J938">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K938">
         <v>4</v>
@@ -44585,7 +44585,7 @@
         <v>14</v>
       </c>
       <c r="D939">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E939">
         <v>1</v>
@@ -44679,7 +44679,7 @@
         <v>14</v>
       </c>
       <c r="D941">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E941">
         <v>1</v>
@@ -44744,7 +44744,7 @@
         <v>0</v>
       </c>
       <c r="J942">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K942">
         <v>5</v>
@@ -44773,7 +44773,7 @@
         <v>14</v>
       </c>
       <c r="D943">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E943">
         <v>1</v>
@@ -44838,7 +44838,7 @@
         <v>0</v>
       </c>
       <c r="J944">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K944">
         <v>4</v>
@@ -44867,7 +44867,7 @@
         <v>14</v>
       </c>
       <c r="D945">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E945">
         <v>1</v>
@@ -44961,7 +44961,7 @@
         <v>14</v>
       </c>
       <c r="D947">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E947">
         <v>1</v>
@@ -45055,7 +45055,7 @@
         <v>14</v>
       </c>
       <c r="D949">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E949">
         <v>1</v>
@@ -45149,7 +45149,7 @@
         <v>14</v>
       </c>
       <c r="D951">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E951">
         <v>1</v>
@@ -45214,7 +45214,7 @@
         <v>0</v>
       </c>
       <c r="J952">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K952">
         <v>0</v>
@@ -45243,7 +45243,7 @@
         <v>14</v>
       </c>
       <c r="D953">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E953">
         <v>1</v>
@@ -45337,7 +45337,7 @@
         <v>14</v>
       </c>
       <c r="D955">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E955">
         <v>1</v>
@@ -45431,7 +45431,7 @@
         <v>14</v>
       </c>
       <c r="D957">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E957">
         <v>1</v>
@@ -45525,7 +45525,7 @@
         <v>14</v>
       </c>
       <c r="D959">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E959">
         <v>1</v>
@@ -45619,7 +45619,7 @@
         <v>14</v>
       </c>
       <c r="D961">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E961">
         <v>1</v>
@@ -45684,7 +45684,7 @@
         <v>0</v>
       </c>
       <c r="J962">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K962">
         <v>5</v>
@@ -45713,7 +45713,7 @@
         <v>14</v>
       </c>
       <c r="D963">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E963">
         <v>1</v>
@@ -45807,7 +45807,7 @@
         <v>14</v>
       </c>
       <c r="D965">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E965">
         <v>1</v>
@@ -45872,7 +45872,7 @@
         <v>0</v>
       </c>
       <c r="J966">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K966">
         <v>5</v>
@@ -45901,7 +45901,7 @@
         <v>14</v>
       </c>
       <c r="D967">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E967">
         <v>1</v>
@@ -45995,7 +45995,7 @@
         <v>14</v>
       </c>
       <c r="D969">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E969">
         <v>1</v>
@@ -46060,7 +46060,7 @@
         <v>0</v>
       </c>
       <c r="J970">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K970">
         <v>5</v>
@@ -46089,7 +46089,7 @@
         <v>14</v>
       </c>
       <c r="D971">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E971">
         <v>1</v>
@@ -46154,7 +46154,7 @@
         <v>0</v>
       </c>
       <c r="J972">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K972">
         <v>4</v>
@@ -46183,7 +46183,7 @@
         <v>14</v>
       </c>
       <c r="D973">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E973">
         <v>1</v>
@@ -46248,7 +46248,7 @@
         <v>0</v>
       </c>
       <c r="J974">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K974">
         <v>5</v>
@@ -46277,7 +46277,7 @@
         <v>14</v>
       </c>
       <c r="D975">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E975">
         <v>1</v>
@@ -46342,7 +46342,7 @@
         <v>0</v>
       </c>
       <c r="J976">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K976">
         <v>4</v>
@@ -46371,7 +46371,7 @@
         <v>14</v>
       </c>
       <c r="D977">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E977">
         <v>1</v>
@@ -46436,7 +46436,7 @@
         <v>0</v>
       </c>
       <c r="J978">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K978">
         <v>0</v>
@@ -46465,7 +46465,7 @@
         <v>14</v>
       </c>
       <c r="D979">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E979">
         <v>1</v>
@@ -46559,7 +46559,7 @@
         <v>14</v>
       </c>
       <c r="D981">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E981">
         <v>1</v>
@@ -46653,7 +46653,7 @@
         <v>14</v>
       </c>
       <c r="D983">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E983">
         <v>1</v>
@@ -46718,7 +46718,7 @@
         <v>0</v>
       </c>
       <c r="J984">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K984">
         <v>5</v>
@@ -46747,7 +46747,7 @@
         <v>14</v>
       </c>
       <c r="D985">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E985">
         <v>1</v>
@@ -46841,7 +46841,7 @@
         <v>14</v>
       </c>
       <c r="D987">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E987">
         <v>1</v>
@@ -46935,7 +46935,7 @@
         <v>14</v>
       </c>
       <c r="D989">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E989">
         <v>1</v>
@@ -47029,7 +47029,7 @@
         <v>14</v>
       </c>
       <c r="D991">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E991">
         <v>1</v>
@@ -47094,7 +47094,7 @@
         <v>0</v>
       </c>
       <c r="J992">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K992">
         <v>4</v>
@@ -47123,7 +47123,7 @@
         <v>14</v>
       </c>
       <c r="D993">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E993">
         <v>1</v>
@@ -47217,7 +47217,7 @@
         <v>14</v>
       </c>
       <c r="D995">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E995">
         <v>1</v>
@@ -47282,7 +47282,7 @@
         <v>0</v>
       </c>
       <c r="J996">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K996">
         <v>4</v>
@@ -47311,7 +47311,7 @@
         <v>14</v>
       </c>
       <c r="D997">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E997">
         <v>1</v>
@@ -47358,7 +47358,7 @@
         <v>14</v>
       </c>
       <c r="D998">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E998">
         <v>1</v>
@@ -47405,7 +47405,7 @@
         <v>14</v>
       </c>
       <c r="D999">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E999">
         <v>1</v>
@@ -47452,7 +47452,7 @@
         <v>14</v>
       </c>
       <c r="D1000">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1000">
         <v>1</v>
@@ -47499,7 +47499,7 @@
         <v>14</v>
       </c>
       <c r="D1001">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1001">
         <v>1</v>
@@ -47546,7 +47546,7 @@
         <v>14</v>
       </c>
       <c r="D1002">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1002">
         <v>1</v>
@@ -47593,7 +47593,7 @@
         <v>14</v>
       </c>
       <c r="D1003">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1003">
         <v>1</v>
@@ -47640,7 +47640,7 @@
         <v>14</v>
       </c>
       <c r="D1004">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1004">
         <v>1</v>
@@ -47687,7 +47687,7 @@
         <v>14</v>
       </c>
       <c r="D1005">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1005">
         <v>1</v>
@@ -47734,7 +47734,7 @@
         <v>14</v>
       </c>
       <c r="D1006">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1006">
         <v>1</v>
@@ -47781,7 +47781,7 @@
         <v>14</v>
       </c>
       <c r="D1007">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1007">
         <v>1</v>
@@ -47799,7 +47799,7 @@
         <v>0</v>
       </c>
       <c r="J1007">
-        <v>0.44704</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1007">
         <v>5</v>
@@ -47828,7 +47828,7 @@
         <v>14</v>
       </c>
       <c r="D1008">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1008">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>14</v>
       </c>
       <c r="D1009">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1009">
         <v>1</v>
@@ -47922,7 +47922,7 @@
         <v>14</v>
       </c>
       <c r="D1010">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1010">
         <v>1</v>
@@ -47969,7 +47969,7 @@
         <v>14</v>
       </c>
       <c r="D1011">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1011">
         <v>1</v>
@@ -48016,7 +48016,7 @@
         <v>14</v>
       </c>
       <c r="D1012">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1012">
         <v>1</v>
@@ -48063,7 +48063,7 @@
         <v>14</v>
       </c>
       <c r="D1013">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1013">
         <v>1</v>
@@ -48110,7 +48110,7 @@
         <v>14</v>
       </c>
       <c r="D1014">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1014">
         <v>1</v>
@@ -48157,7 +48157,7 @@
         <v>14</v>
       </c>
       <c r="D1015">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1015">
         <v>1</v>
@@ -48204,7 +48204,7 @@
         <v>14</v>
       </c>
       <c r="D1016">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1016">
         <v>1</v>
@@ -48251,7 +48251,7 @@
         <v>14</v>
       </c>
       <c r="D1017">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1017">
         <v>1</v>
@@ -48298,7 +48298,7 @@
         <v>14</v>
       </c>
       <c r="D1018">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1018">
         <v>1</v>
@@ -48345,7 +48345,7 @@
         <v>14</v>
       </c>
       <c r="D1019">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1019">
         <v>1</v>
@@ -48392,7 +48392,7 @@
         <v>14</v>
       </c>
       <c r="D1020">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1020">
         <v>1</v>
@@ -48439,7 +48439,7 @@
         <v>14</v>
       </c>
       <c r="D1021">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1021">
         <v>1</v>
@@ -48486,7 +48486,7 @@
         <v>14</v>
       </c>
       <c r="D1022">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1022">
         <v>1</v>
@@ -48533,7 +48533,7 @@
         <v>14</v>
       </c>
       <c r="D1023">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1023">
         <v>1</v>
@@ -48580,7 +48580,7 @@
         <v>14</v>
       </c>
       <c r="D1024">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1024">
         <v>1</v>
@@ -48627,7 +48627,7 @@
         <v>14</v>
       </c>
       <c r="D1025">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1025">
         <v>1</v>
@@ -48674,7 +48674,7 @@
         <v>14</v>
       </c>
       <c r="D1026">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1026">
         <v>1</v>
@@ -48721,7 +48721,7 @@
         <v>14</v>
       </c>
       <c r="D1027">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1027">
         <v>1</v>
@@ -48768,7 +48768,7 @@
         <v>14</v>
       </c>
       <c r="D1028">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1028">
         <v>1</v>
@@ -48815,7 +48815,7 @@
         <v>14</v>
       </c>
       <c r="D1029">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1029">
         <v>1</v>
@@ -48862,7 +48862,7 @@
         <v>14</v>
       </c>
       <c r="D1030">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1030">
         <v>1</v>
@@ -48909,7 +48909,7 @@
         <v>14</v>
       </c>
       <c r="D1031">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1031">
         <v>1</v>
@@ -48956,7 +48956,7 @@
         <v>14</v>
       </c>
       <c r="D1032">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1032">
         <v>1</v>
@@ -49003,7 +49003,7 @@
         <v>14</v>
       </c>
       <c r="D1033">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1033">
         <v>1</v>
@@ -49050,7 +49050,7 @@
         <v>14</v>
       </c>
       <c r="D1034">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1034">
         <v>1</v>
@@ -49097,7 +49097,7 @@
         <v>14</v>
       </c>
       <c r="D1035">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1035">
         <v>1</v>
@@ -49144,7 +49144,7 @@
         <v>14</v>
       </c>
       <c r="D1036">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1036">
         <v>1</v>
@@ -49191,7 +49191,7 @@
         <v>14</v>
       </c>
       <c r="D1037">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1037">
         <v>1</v>
@@ -49238,7 +49238,7 @@
         <v>14</v>
       </c>
       <c r="D1038">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1038">
         <v>1</v>
@@ -49285,7 +49285,7 @@
         <v>14</v>
       </c>
       <c r="D1039">
-        <v>219</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1039">
         <v>1</v>
@@ -49379,7 +49379,7 @@
         <v>14</v>
       </c>
       <c r="D1041">
-        <v>185</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1041">
         <v>0</v>
@@ -50084,7 +50084,7 @@
         <v>14</v>
       </c>
       <c r="D1056">
-        <v>195</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1056">
         <v>1</v>
@@ -51494,7 +51494,7 @@
         <v>14</v>
       </c>
       <c r="D1086">
-        <v>203</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1086">
         <v>1</v>
@@ -51559,7 +51559,7 @@
         <v>0</v>
       </c>
       <c r="J1087">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1087">
         <v>4</v>
@@ -51794,7 +51794,7 @@
         <v>0</v>
       </c>
       <c r="J1092">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1092">
         <v>4</v>
@@ -51888,7 +51888,7 @@
         <v>0</v>
       </c>
       <c r="J1094">
-        <v>1.922272</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1094">
         <v>3</v>
@@ -51935,7 +51935,7 @@
         <v>0</v>
       </c>
       <c r="J1095">
-        <v>0.581152</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1095">
         <v>8</v>
@@ -52857,7 +52857,7 @@
         <v>14</v>
       </c>
       <c r="D1115">
-        <v>183</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1115">
         <v>0</v>
@@ -52875,7 +52875,7 @@
         <v>2.54</v>
       </c>
       <c r="J1115">
-        <v>0.715264</v>
+        <v>0.05703015145631054</v>
       </c>
       <c r="K1115">
         <v>4</v>
@@ -53515,7 +53515,7 @@
         <v>14</v>
       </c>
       <c r="D1129">
-        <v>124</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1129">
         <v>0</v>
@@ -53562,7 +53562,7 @@
         <v>14</v>
       </c>
       <c r="D1130">
-        <v>122</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1130">
         <v>0</v>
@@ -54267,7 +54267,7 @@
         <v>14</v>
       </c>
       <c r="D1145">
-        <v>154</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1145">
         <v>0</v>
@@ -54831,7 +54831,7 @@
         <v>14</v>
       </c>
       <c r="D1157">
-        <v>131</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1157">
         <v>0</v>
@@ -54878,7 +54878,7 @@
         <v>14</v>
       </c>
       <c r="D1158">
-        <v>189</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1158">
         <v>0</v>
@@ -54925,7 +54925,7 @@
         <v>14</v>
       </c>
       <c r="D1159">
-        <v>120</v>
+        <v>25.61715481171548</v>
       </c>
       <c r="E1159">
         <v>0</v>
